--- a/data/trans_bre/IP43-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP43-Edad-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 4,17</t>
+          <t>-11,13; 4,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 5,75</t>
+          <t>-7,61; 6,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 22,48</t>
+          <t>-40,52; 25,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 53,7</t>
+          <t>-40,72; 56,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 6,01</t>
+          <t>-5,92; 6,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,7</t>
+          <t>-1,89; 7,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 28,89</t>
+          <t>-23,2; 31,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 92,87</t>
+          <t>-15,62; 90,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 11,29</t>
+          <t>-5,6; 9,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,39</t>
+          <t>-5,13; 4,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 58,58</t>
+          <t>-19,62; 51,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,27; 62,73</t>
+          <t>-44,39; 57,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 6,15</t>
+          <t>-8,01; 6,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 6,66</t>
+          <t>-5,11; 6,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 29,61</t>
+          <t>-30,17; 36,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,44; 66,82</t>
+          <t>-32,19; 69,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,34</t>
+          <t>-4,01; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,45</t>
+          <t>-2,19; 3,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 15,29</t>
+          <t>-15,74; 15,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 33,63</t>
+          <t>-16,11; 36,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">

--- a/data/trans_bre/IP43-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP43-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 4,51</t>
+          <t>-12,62; 3,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 6,0</t>
+          <t>-8,17; 5,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 25,03</t>
+          <t>-45,46; 21,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 56,66</t>
+          <t>-43,52; 47,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 6,38</t>
+          <t>-5,86; 6,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,5</t>
+          <t>-1,43; 7,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 31,74</t>
+          <t>-21,65; 31,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 90,63</t>
+          <t>-12,04; 94,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 9,77</t>
+          <t>-5,16; 11,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,26</t>
+          <t>-5,4; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 51,63</t>
+          <t>-19,22; 56,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 57,42</t>
+          <t>-43,32; 63,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 6,77</t>
+          <t>-8,61; 5,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,71</t>
+          <t>-5,41; 7,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 36,1</t>
+          <t>-32,41; 28,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 69,43</t>
+          <t>-33,26; 74,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,18</t>
+          <t>-4,37; 2,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,73</t>
+          <t>-1,78; 3,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 15,08</t>
+          <t>-17,0; 13,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 36,45</t>
+          <t>-14,11; 35,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
